--- a/BASE_marcas.xlsx
+++ b/BASE_marcas.xlsx
@@ -1,53 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\auto_nextt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Desktop\dev\automacao-nextt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BFEE43B-F50D-44D5-B09D-CBB68660CDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C86EED-80A4-4C0F-91EE-674BA407024A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{AF29576A-8DE3-4303-ACE2-D32868194051}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dados Consolidados" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>sec_codigo</t>
+  </si>
+  <si>
+    <t>esp_codigo</t>
+  </si>
   <si>
     <t>mar_codigo</t>
   </si>
   <si>
-    <t>teste1</t>
+    <t>usu_codigo</t>
   </si>
   <si>
-    <t>teste2</t>
+    <t>und_codigo</t>
   </si>
   <si>
-    <t>teste3</t>
+    <t>etq_codigo</t>
   </si>
 </sst>
 </file>
@@ -83,12 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,11 +409,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC6287D-D067-40AD-B3F9-39354EFCC526}">
-  <dimension ref="A1:AJ8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,78 +455,2518 @@
     <col min="35" max="35" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F313"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+      <c r="D32">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>40</v>
+      </c>
+      <c r="D34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>41</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>44</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>45</v>
+      </c>
+      <c r="D39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>47</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>48</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>49</v>
+      </c>
+      <c r="D43">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>54</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>61</v>
+      </c>
+      <c r="D53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>5</v>
+      </c>
+      <c r="C95">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>5</v>
+      </c>
+      <c r="C127">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>3</v>
+      </c>
+      <c r="C148">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>9</v>
+      </c>
+      <c r="C168">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>8</v>
+      </c>
+      <c r="C176">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>6</v>
+      </c>
+      <c r="C184">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>3</v>
+      </c>
+      <c r="C188">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>5</v>
+      </c>
+      <c r="C190">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>8</v>
+      </c>
+      <c r="C193">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>3</v>
+      </c>
+      <c r="C196">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>